--- a/duct fitting library/spreadsheets/venture_industries_guide_fittings_pressure_loss_coef.xlsx
+++ b/duct fitting library/spreadsheets/venture_industries_guide_fittings_pressure_loss_coef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\GitHub\ductwork\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\pyductwork\duct fitting library\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8211A10-CF0B-4FE0-83E6-6F1D2772D668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B13CC7D-29F1-4813-9E75-8942679F8720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="0" windowWidth="21600" windowHeight="11235" tabRatio="862" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" firstSheet="1" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="23" r:id="rId1"/>
@@ -33,8 +33,8 @@
     <sheet name="17" sheetId="18" r:id="rId18"/>
     <sheet name="18" sheetId="19" r:id="rId19"/>
     <sheet name="19" sheetId="20" r:id="rId20"/>
-    <sheet name="20" sheetId="21" r:id="rId21"/>
-    <sheet name="21" sheetId="22" r:id="rId22"/>
+    <sheet name="21" sheetId="22" r:id="rId21"/>
+    <sheet name="20" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="94">
   <si>
     <t>R/D</t>
   </si>
@@ -319,6 +319,27 @@
   <si>
     <t>9A</t>
   </si>
+  <si>
+    <t>Which Qb should be taken to calculate Qb/Qc ratio?</t>
+  </si>
+  <si>
+    <t>Ratio1 = Qb1/Qc</t>
+  </si>
+  <si>
+    <t>Ratio2 = Qb2/Qc</t>
+  </si>
+  <si>
+    <t>This ratio has to be calculated once per branch.</t>
+  </si>
+  <si>
+    <t>Which vb should be taken to calculate vb/vc ratio?</t>
+  </si>
+  <si>
+    <t>Ratio1 = vb1/vc</t>
+  </si>
+  <si>
+    <t>Ratio2 = vb2/vc</t>
+  </si>
 </sst>
 </file>
 
@@ -554,20 +575,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9734,6 +9755,373 @@
           </c:marker>
           <c:val>
             <c:numRef>
+              <c:f>'21'!$M$15:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-47.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F922-4143-9AA4-17BA84BA3138}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'21'!$M$16:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-37.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F922-4143-9AA4-17BA84BA3138}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'21'!$M$17:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-23.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F922-4143-9AA4-17BA84BA3138}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1521134447"/>
+        <c:axId val="1521134863"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1521134447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1521134863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1521134863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1521134447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
               <c:f>'20'!$L$18:$X$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
@@ -10184,373 +10572,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1584389712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'21'!$M$15:$V$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-47.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-8.1300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F922-4143-9AA4-17BA84BA3138}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'21'!$M$16:$V$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-37.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F922-4143-9AA4-17BA84BA3138}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'21'!$M$17:$V$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-23.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F922-4143-9AA4-17BA84BA3138}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1521134447"/>
-        <c:axId val="1521134863"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1521134447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1521134863"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1521134863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1521134447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29579,6 +29600,91 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29430</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E4D5CA-3764-475F-1466-3DC76FAE4D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6125430" cy="3553321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1E8152-C1B4-A1CB-2836-642C973173F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>315168</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -29634,91 +29740,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0273EC39-04C9-6C06-7C7B-33B0CDB048D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>29430</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>124321</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E4D5CA-3764-475F-1466-3DC76FAE4D4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6125430" cy="3553321"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1E8152-C1B4-A1CB-2836-642C973173F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35316,27 +35337,27 @@
       </c>
     </row>
     <row r="13" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
     </row>
     <row r="14" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K14" s="31"/>
-      <c r="L14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="16">
         <v>0.1</v>
       </c>
@@ -35374,7 +35395,7 @@
       </c>
     </row>
     <row r="15" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K15" s="30">
+      <c r="K15" s="33">
         <v>30</v>
       </c>
       <c r="L15" s="1">
@@ -35409,7 +35430,7 @@
       </c>
     </row>
     <row r="16" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K16" s="30"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="1">
         <f t="shared" ref="L16:L23" si="1">L15+0.1</f>
         <v>0.2</v>
@@ -35443,7 +35464,7 @@
       </c>
     </row>
     <row r="17" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K17" s="30"/>
+      <c r="K17" s="33"/>
       <c r="L17" s="1">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
@@ -35477,7 +35498,7 @@
       </c>
     </row>
     <row r="18" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K18" s="30"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="1">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -35511,7 +35532,7 @@
       </c>
     </row>
     <row r="19" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K19" s="30"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
@@ -35545,7 +35566,7 @@
       </c>
     </row>
     <row r="20" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K20" s="30"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="1">
         <f t="shared" si="1"/>
         <v>0.6</v>
@@ -35586,7 +35607,7 @@
       <c r="AE20" s="13"/>
     </row>
     <row r="21" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K21" s="30"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="1">
         <f t="shared" si="1"/>
         <v>0.7</v>
@@ -35617,7 +35638,7 @@
       <c r="AB21" s="13"/>
     </row>
     <row r="22" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K22" s="30"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="1">
         <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
@@ -35646,7 +35667,7 @@
       <c r="AB22" s="13"/>
     </row>
     <row r="23" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K23" s="30"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="1">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
@@ -35673,7 +35694,7 @@
       <c r="AB23" s="13"/>
     </row>
     <row r="24" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K24" s="30">
+      <c r="K24" s="33">
         <v>45</v>
       </c>
       <c r="L24" s="1">
@@ -35709,7 +35730,7 @@
       <c r="AB24" s="13"/>
     </row>
     <row r="25" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K25" s="30"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="1">
         <f t="shared" ref="L25:L32" si="2">L24+0.1</f>
         <v>0.2</v>
@@ -35744,7 +35765,7 @@
       <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K26" s="30"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="1">
         <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
@@ -35779,7 +35800,7 @@
       <c r="AB26" s="13"/>
     </row>
     <row r="27" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K27" s="30"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="1">
         <f t="shared" si="2"/>
         <v>0.4</v>
@@ -35814,7 +35835,7 @@
       <c r="AB27" s="13"/>
     </row>
     <row r="28" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K28" s="30"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="1">
         <f t="shared" si="2"/>
         <v>0.5</v>
@@ -35849,7 +35870,7 @@
       <c r="AB28" s="13"/>
     </row>
     <row r="29" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K29" s="30"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="1">
         <f t="shared" si="2"/>
         <v>0.6</v>
@@ -35882,7 +35903,7 @@
       <c r="AB29" s="13"/>
     </row>
     <row r="30" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K30" s="30"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="1">
         <f t="shared" si="2"/>
         <v>0.7</v>
@@ -35913,7 +35934,7 @@
       <c r="AB30" s="13"/>
     </row>
     <row r="31" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K31" s="30"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="1">
         <f t="shared" si="2"/>
         <v>0.79999999999999993</v>
@@ -35942,7 +35963,7 @@
       <c r="AB31" s="13"/>
     </row>
     <row r="32" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="K32" s="30"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="1">
         <f t="shared" si="2"/>
         <v>0.89999999999999991</v>
@@ -35969,7 +35990,7 @@
       <c r="AB32" s="13"/>
     </row>
     <row r="33" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K33" s="31">
+      <c r="K33" s="30">
         <v>60</v>
       </c>
       <c r="L33" s="1">
@@ -36005,7 +36026,7 @@
       <c r="AB33" s="13"/>
     </row>
     <row r="34" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K34" s="33"/>
+      <c r="K34" s="31"/>
       <c r="L34" s="1">
         <f t="shared" ref="L34:L41" si="3">L33+0.1</f>
         <v>0.2</v>
@@ -36040,7 +36061,7 @@
       <c r="AB34" s="13"/>
     </row>
     <row r="35" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K35" s="33"/>
+      <c r="K35" s="31"/>
       <c r="L35" s="1">
         <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
@@ -36075,7 +36096,7 @@
       <c r="AB35" s="13"/>
     </row>
     <row r="36" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K36" s="33"/>
+      <c r="K36" s="31"/>
       <c r="L36" s="1">
         <f t="shared" si="3"/>
         <v>0.4</v>
@@ -36110,7 +36131,7 @@
       <c r="AB36" s="13"/>
     </row>
     <row r="37" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K37" s="33"/>
+      <c r="K37" s="31"/>
       <c r="L37" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
@@ -36145,7 +36166,7 @@
       <c r="AB37" s="13"/>
     </row>
     <row r="38" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K38" s="33"/>
+      <c r="K38" s="31"/>
       <c r="L38" s="1">
         <f t="shared" si="3"/>
         <v>0.6</v>
@@ -36178,7 +36199,7 @@
       <c r="AB38" s="13"/>
     </row>
     <row r="39" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K39" s="33"/>
+      <c r="K39" s="31"/>
       <c r="L39" s="1">
         <f t="shared" si="3"/>
         <v>0.7</v>
@@ -36209,7 +36230,7 @@
       <c r="AB39" s="13"/>
     </row>
     <row r="40" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K40" s="33"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="1">
         <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
@@ -36238,7 +36259,7 @@
       <c r="AB40" s="13"/>
     </row>
     <row r="41" spans="11:28" x14ac:dyDescent="0.25">
-      <c r="K41" s="34"/>
+      <c r="K41" s="32"/>
       <c r="L41" s="1">
         <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
@@ -37252,6 +37273,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="K15:K23"/>
+    <mergeCell ref="K24:K32"/>
     <mergeCell ref="K67:K75"/>
     <mergeCell ref="K33:K41"/>
     <mergeCell ref="K47:K48"/>
@@ -37259,11 +37285,6 @@
     <mergeCell ref="M47:U47"/>
     <mergeCell ref="K49:K57"/>
     <mergeCell ref="K58:K66"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="K15:K23"/>
-    <mergeCell ref="K24:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37274,7 +37295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="K10:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
@@ -37599,8 +37620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3937FD28-3E56-4F7D-B4D8-720EB65653E3}">
   <dimension ref="B3:O26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37757,385 +37778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3A17FA-F489-4B2C-AED0-26BFF2A83836}">
-  <dimension ref="B13:X26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="13" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="O13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="11:24" x14ac:dyDescent="0.25">
-      <c r="K16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="K17" s="30"/>
-      <c r="L17" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="M17" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="N17" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="O17" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="R17" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="S17" s="15">
-        <v>1</v>
-      </c>
-      <c r="T17" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="U17" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="V17" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="W17" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="X17" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="K18" s="6">
-        <v>15</v>
-      </c>
-      <c r="L18" s="5">
-        <v>81</v>
-      </c>
-      <c r="M18" s="5">
-        <v>16.25</v>
-      </c>
-      <c r="N18" s="5">
-        <v>5.67</v>
-      </c>
-      <c r="O18" s="5">
-        <v>2.38</v>
-      </c>
-      <c r="P18" s="5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="W18" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="K19" s="6">
-        <v>30</v>
-      </c>
-      <c r="L19" s="5">
-        <v>84</v>
-      </c>
-      <c r="M19" s="5">
-        <v>17.25</v>
-      </c>
-      <c r="N19" s="5">
-        <v>6.22</v>
-      </c>
-      <c r="O19" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="P19" s="5">
-        <v>1.36</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="K20" s="6">
-        <v>45</v>
-      </c>
-      <c r="L20" s="5">
-        <v>87</v>
-      </c>
-      <c r="M20" s="5">
-        <v>18.5</v>
-      </c>
-      <c r="N20" s="5">
-        <v>7</v>
-      </c>
-      <c r="O20" s="5">
-        <v>3.38</v>
-      </c>
-      <c r="P20" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>1.06</v>
-      </c>
-      <c r="R20" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="S20" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="T20" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="K21" s="6">
-        <v>60</v>
-      </c>
-      <c r="L21" s="5">
-        <v>90</v>
-      </c>
-      <c r="M21" s="5">
-        <v>20.5</v>
-      </c>
-      <c r="N21" s="5">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="O21" s="5">
-        <v>4.13</v>
-      </c>
-      <c r="P21" s="5">
-        <v>2.36</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>1.47</v>
-      </c>
-      <c r="R21" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="S21" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="T21" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="V21" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="W21" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="X21" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="K22" s="6">
-        <v>90</v>
-      </c>
-      <c r="L22" s="5">
-        <v>99</v>
-      </c>
-      <c r="M22" s="5">
-        <v>25</v>
-      </c>
-      <c r="N22" s="5">
-        <v>11.11</v>
-      </c>
-      <c r="O22" s="5">
-        <v>6.25</v>
-      </c>
-      <c r="P22" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>2.78</v>
-      </c>
-      <c r="R22" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="S22" s="5">
-        <v>1</v>
-      </c>
-      <c r="T22" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0.51</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="X22" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:X16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62122AE-3A64-4D0F-8B4E-F0F905540FFF}">
-  <dimension ref="B10:V22"/>
+  <dimension ref="B10:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L19" sqref="L19:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38340,6 +37987,11 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L18" s="7"/>
     </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>51</v>
@@ -38349,6 +38001,9 @@
       </c>
       <c r="D20" s="7" t="s">
         <v>54</v>
+      </c>
+      <c r="L20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
@@ -38361,6 +38016,9 @@
       <c r="D21" t="s">
         <v>56</v>
       </c>
+      <c r="L21" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -38371,12 +38029,413 @@
       </c>
       <c r="D22" t="s">
         <v>74</v>
+      </c>
+      <c r="L22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:V13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3A17FA-F489-4B2C-AED0-26BFF2A83836}">
+  <dimension ref="B13:X28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="O13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K17" s="33"/>
+      <c r="L17" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="S17" s="15">
+        <v>1</v>
+      </c>
+      <c r="T17" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="U17" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="V17" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="W17" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="X17" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K18" s="6">
+        <v>15</v>
+      </c>
+      <c r="L18" s="5">
+        <v>81</v>
+      </c>
+      <c r="M18" s="5">
+        <v>16.25</v>
+      </c>
+      <c r="N18" s="5">
+        <v>5.67</v>
+      </c>
+      <c r="O18" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K19" s="6">
+        <v>30</v>
+      </c>
+      <c r="L19" s="5">
+        <v>84</v>
+      </c>
+      <c r="M19" s="5">
+        <v>17.25</v>
+      </c>
+      <c r="N19" s="5">
+        <v>6.22</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K20" s="6">
+        <v>45</v>
+      </c>
+      <c r="L20" s="5">
+        <v>87</v>
+      </c>
+      <c r="M20" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="N20" s="5">
+        <v>7</v>
+      </c>
+      <c r="O20" s="5">
+        <v>3.38</v>
+      </c>
+      <c r="P20" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K21" s="6">
+        <v>60</v>
+      </c>
+      <c r="L21" s="5">
+        <v>90</v>
+      </c>
+      <c r="M21" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="N21" s="5">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="O21" s="5">
+        <v>4.13</v>
+      </c>
+      <c r="P21" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K22" s="6">
+        <v>90</v>
+      </c>
+      <c r="L22" s="5">
+        <v>99</v>
+      </c>
+      <c r="M22" s="5">
+        <v>25</v>
+      </c>
+      <c r="N22" s="5">
+        <v>11.11</v>
+      </c>
+      <c r="O22" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="P22" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>2.78</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:X16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
